--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -75,7 +75,7 @@
     <t>Finance Manager at bKash(Natore)</t>
   </si>
   <si>
-    <t>Six Lac Taka Only.</t>
+    <t>Five Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -498,13 +498,55 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -520,48 +562,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,11 +1164,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1176,21 +1176,21 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44553</v>
+        <v>44568</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1208,11 +1208,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>170000</v>
+        <v>131000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,21 +1220,23 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>700</v>
+        <v>592</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>350000</v>
+        <v>296000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>200</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1242,21 +1244,23 @@
         <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>600</v>
+        <v>688</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>68800</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>50</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4">
+        <v>24</v>
+      </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1264,41 +1268,43 @@
         <v>20</v>
       </c>
       <c r="B11" s="4">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4">
+        <v>46</v>
+      </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
-        <v>600000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="54"/>
     </row>
     <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
@@ -1315,19 +1321,19 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="41"/>
+      <c r="C17" s="55"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="41"/>
+      <c r="C18" s="55"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="41"/>
+      <c r="C19" s="55"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
@@ -1358,11 +1364,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -1370,21 +1376,21 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44553</v>
+        <v>44568</v>
       </c>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1402,11 +1408,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>170000</v>
+        <v>131000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1414,21 +1420,23 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>700</v>
+        <v>592</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>350000</v>
+        <v>296000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>200</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4">
+        <v>10</v>
+      </c>
       <c r="C31" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1436,21 +1444,23 @@
         <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>600</v>
+        <v>688</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>60000</v>
+        <v>68800</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>50</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4">
+        <v>24</v>
+      </c>
       <c r="C33" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1458,31 +1468,33 @@
         <v>20</v>
       </c>
       <c r="B34" s="4">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="C34" s="20">
         <f>SUM(A34*B34)</f>
-        <v>20000</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>10</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4">
+        <v>46</v>
+      </c>
       <c r="C35" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
-        <v>600000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1490,11 +1502,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="37" t="str">
+      <c r="B37" s="51" t="str">
         <f>B14</f>
-        <v>Six Lac Taka Only.</v>
-      </c>
-      <c r="C37" s="38"/>
+        <v>Five Lac Taka Only.</v>
+      </c>
+      <c r="C37" s="52"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1511,19 +1523,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="41"/>
+      <c r="C40" s="55"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="41"/>
+      <c r="C41" s="55"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="41"/>
+      <c r="C42" s="55"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1549,12 +1561,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1563,6 +1569,12 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>

--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -75,7 +75,7 @@
     <t>Finance Manager at bKash(Natore)</t>
   </si>
   <si>
-    <t>Five Lac Taka Only.</t>
+    <t>Ten Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -498,26 +498,38 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,40 +540,28 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,23 +1152,23 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1176,21 +1176,21 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44568</v>
+        <v>44581</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1208,11 +1208,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>131</v>
+        <v>344</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>131000</v>
+        <v>344000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,11 +1220,11 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>592</v>
+        <v>1100</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>296000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,11 +1232,11 @@
         <v>200</v>
       </c>
       <c r="B8" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,11 +1244,11 @@
         <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>688</v>
+        <v>970</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>68800</v>
+        <v>97000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1256,11 +1256,11 @@
         <v>50</v>
       </c>
       <c r="B10" s="4">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1268,43 +1268,41 @@
         <v>20</v>
       </c>
       <c r="B11" s="4">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
-        <v>46</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
-        <v>500000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
@@ -1321,19 +1319,19 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="55"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="55"/>
+      <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="55"/>
+      <c r="C19" s="41"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
@@ -1364,11 +1362,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -1376,21 +1374,21 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44568</v>
+        <v>44581</v>
       </c>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1408,11 +1406,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>131</v>
+        <v>344</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>131000</v>
+        <v>344000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1420,11 +1418,11 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>592</v>
+        <v>1100</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>296000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1432,11 +1430,11 @@
         <v>200</v>
       </c>
       <c r="B31" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C31" s="20">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1444,11 +1442,11 @@
         <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>688</v>
+        <v>970</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>68800</v>
+        <v>97000</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1456,11 +1454,11 @@
         <v>50</v>
       </c>
       <c r="B33" s="4">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C33" s="20">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1468,33 +1466,31 @@
         <v>20</v>
       </c>
       <c r="B34" s="4">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="C34" s="20">
         <f>SUM(A34*B34)</f>
-        <v>540</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>10</v>
       </c>
-      <c r="B35" s="4">
-        <v>46</v>
-      </c>
+      <c r="B35" s="4"/>
       <c r="C35" s="20">
         <f t="shared" si="1"/>
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
-        <v>500000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1502,11 +1498,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="51" t="str">
+      <c r="B37" s="37" t="str">
         <f>B14</f>
-        <v>Five Lac Taka Only.</v>
-      </c>
-      <c r="C37" s="52"/>
+        <v>Ten Lac Taka Only.</v>
+      </c>
+      <c r="C37" s="38"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1523,19 +1519,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="55"/>
+      <c r="C40" s="41"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="55"/>
+      <c r="C41" s="41"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="55"/>
+      <c r="C42" s="41"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1561,6 +1557,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1569,12 +1571,6 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>

--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -60,9 +60,6 @@
     <t>Cash Transfer to Natore bKash, Order as per Abdul Mannan Tipu</t>
   </si>
   <si>
-    <t>Cash Handover by Kabir to bKash Jafor, Order as per Abdul Mannan Tipu</t>
-  </si>
-  <si>
     <t>Jafor Iqbal</t>
   </si>
   <si>
@@ -75,7 +72,10 @@
     <t>Finance Manager at bKash(Natore)</t>
   </si>
   <si>
-    <t>Ten Lac Taka Only.</t>
+    <t>Cash Handover by Rahinul Kabir to bKash Jafor, Order as per Abdul Mannan Tipu</t>
+  </si>
+  <si>
+    <t>Eight Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -498,13 +498,55 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -520,48 +562,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,11 +1164,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1176,21 +1176,21 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44581</v>
+        <v>44588</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
+      <c r="A3" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1208,11 +1208,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>344000</v>
+        <v>311000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,11 +1220,11 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>550000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,11 +1232,11 @@
         <v>200</v>
       </c>
       <c r="B8" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,11 +1244,11 @@
         <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>970</v>
+        <v>752</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>97000</v>
+        <v>75200</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1256,11 +1256,11 @@
         <v>50</v>
       </c>
       <c r="B10" s="4">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1268,11 +1268,11 @@
         <v>20</v>
       </c>
       <c r="B11" s="4">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1286,23 +1286,23 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
-        <v>1000000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="54"/>
     </row>
     <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
@@ -1319,36 +1319,36 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="41"/>
+      <c r="C17" s="55"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="41"/>
+      <c r="C18" s="55"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="41"/>
+      <c r="C19" s="55"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1362,11 +1362,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -1374,21 +1374,21 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44581</v>
+        <v>44588</v>
       </c>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1406,11 +1406,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>344000</v>
+        <v>311000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1418,11 +1418,11 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>550000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1430,11 +1430,11 @@
         <v>200</v>
       </c>
       <c r="B31" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C31" s="20">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1442,11 +1442,11 @@
         <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>970</v>
+        <v>752</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>97000</v>
+        <v>75200</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1454,11 +1454,11 @@
         <v>50</v>
       </c>
       <c r="B33" s="4">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="C33" s="20">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1466,11 +1466,11 @@
         <v>20</v>
       </c>
       <c r="B34" s="4">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C34" s="20">
         <f>SUM(A34*B34)</f>
-        <v>4000</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1484,13 +1484,13 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
-        <v>1000000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1498,11 +1498,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="37" t="str">
+      <c r="B37" s="51" t="str">
         <f>B14</f>
-        <v>Ten Lac Taka Only.</v>
-      </c>
-      <c r="C37" s="38"/>
+        <v>Eight Lac Taka Only.</v>
+      </c>
+      <c r="C37" s="52"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1519,19 +1519,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="41"/>
+      <c r="C40" s="55"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="41"/>
+      <c r="C41" s="55"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="41"/>
+      <c r="C42" s="55"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1557,12 +1557,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1571,6 +1565,12 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>

--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -75,7 +75,7 @@
     <t>Cash Handover by Rahinul Kabir to bKash Jafor, Order as per Abdul Mannan Tipu</t>
   </si>
   <si>
-    <t>Eight Lac Taka Only.</t>
+    <t>Seven Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -498,26 +498,38 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,40 +540,28 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,11 +1164,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1176,21 +1176,21 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44588</v>
+        <v>44597</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1208,11 +1208,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>311000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,23 +1220,21 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>400000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>200</v>
       </c>
-      <c r="B8" s="4">
-        <v>15</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,35 +1242,31 @@
         <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>752</v>
+        <v>500</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>75200</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>50</v>
       </c>
-      <c r="B10" s="4">
-        <v>164</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>8200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
-        <v>130</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1286,23 +1280,23 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
-        <v>800000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
@@ -1319,19 +1313,19 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="55"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="55"/>
+      <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="55"/>
+      <c r="C19" s="41"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
@@ -1362,11 +1356,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -1374,21 +1368,21 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44588</v>
+        <v>44597</v>
       </c>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1406,11 +1400,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>311000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1418,23 +1412,21 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>400000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>200</v>
       </c>
-      <c r="B31" s="4">
-        <v>15</v>
-      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="20">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1442,35 +1434,31 @@
         <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>752</v>
+        <v>500</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>75200</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>50</v>
       </c>
-      <c r="B33" s="4">
-        <v>164</v>
-      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="20">
         <f t="shared" si="1"/>
-        <v>8200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>20</v>
       </c>
-      <c r="B34" s="4">
-        <v>130</v>
-      </c>
+      <c r="B34" s="4"/>
       <c r="C34" s="20">
         <f>SUM(A34*B34)</f>
-        <v>2600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1484,13 +1472,13 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
-        <v>800000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1498,11 +1486,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="51" t="str">
+      <c r="B37" s="37" t="str">
         <f>B14</f>
-        <v>Eight Lac Taka Only.</v>
-      </c>
-      <c r="C37" s="52"/>
+        <v>Seven Lac Taka Only.</v>
+      </c>
+      <c r="C37" s="38"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1519,19 +1507,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="55"/>
+      <c r="C40" s="41"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="55"/>
+      <c r="C41" s="41"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="55"/>
+      <c r="C42" s="41"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1557,6 +1545,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1565,12 +1559,6 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>

--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -75,7 +75,7 @@
     <t>Cash Handover by Rahinul Kabir to bKash Jafor, Order as per Abdul Mannan Tipu</t>
   </si>
   <si>
-    <t>Seven Lac Taka Only.</t>
+    <t>Four Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44597</v>
+        <v>44603</v>
       </c>
       <c r="C2" s="33"/>
     </row>
@@ -1208,11 +1208,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>200000</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,21 +1220,23 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>900</v>
+        <v>334</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>450000</v>
+        <v>167000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>200</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4">
+        <v>15</v>
+      </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1242,41 +1244,47 @@
         <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>500</v>
+        <v>1427</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>142700</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>50</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4">
+        <v>27</v>
+      </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>20</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4">
+        <v>129</v>
+      </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4">
+        <v>137</v>
+      </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1286,7 +1294,7 @@
       <c r="B13" s="55"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
-        <v>700000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,7 +1376,7 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44597</v>
+        <v>44603</v>
       </c>
       <c r="C25" s="33"/>
     </row>
@@ -1400,11 +1408,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>200000</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1412,21 +1420,23 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>900</v>
+        <v>334</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>450000</v>
+        <v>167000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>200</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4">
+        <v>15</v>
+      </c>
       <c r="C31" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1434,41 +1444,47 @@
         <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>500</v>
+        <v>1427</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>142700</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>50</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4">
+        <v>27</v>
+      </c>
       <c r="C33" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>20</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4">
+        <v>129</v>
+      </c>
       <c r="C34" s="20">
         <f>SUM(A34*B34)</f>
-        <v>0</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>10</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4">
+        <v>137</v>
+      </c>
       <c r="C35" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -1478,7 +1494,7 @@
       <c r="B36" s="35"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
-        <v>700000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,7 +1504,7 @@
       </c>
       <c r="B37" s="37" t="str">
         <f>B14</f>
-        <v>Seven Lac Taka Only.</v>
+        <v>Four Lac Taka Only.</v>
       </c>
       <c r="C37" s="38"/>
     </row>

--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -75,7 +75,7 @@
     <t>Cash Handover by Rahinul Kabir to bKash Jafor, Order as per Abdul Mannan Tipu</t>
   </si>
   <si>
-    <t>Four Lac Taka Only.</t>
+    <t>Six Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -498,13 +498,55 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -520,48 +562,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,11 +1164,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1176,21 +1176,21 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44603</v>
+        <v>44610</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1208,11 +1208,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>82000</v>
+        <v>93000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,11 +1220,11 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>334</v>
+        <v>667</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>167000</v>
+        <v>333500</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,11 +1232,11 @@
         <v>200</v>
       </c>
       <c r="B8" s="4">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,11 +1244,11 @@
         <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>1427</v>
+        <v>1563</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>142700</v>
+        <v>156300</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1256,11 +1256,11 @@
         <v>50</v>
       </c>
       <c r="B10" s="4">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>1350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1268,43 +1268,41 @@
         <v>20</v>
       </c>
       <c r="B11" s="4">
-        <v>129</v>
+        <v>600</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>2580</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
-        <v>137</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>1370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
-        <v>400000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="54"/>
     </row>
     <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
@@ -1321,19 +1319,19 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="41"/>
+      <c r="C17" s="55"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="41"/>
+      <c r="C18" s="55"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="41"/>
+      <c r="C19" s="55"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
@@ -1364,11 +1362,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -1376,21 +1374,21 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44603</v>
+        <v>44610</v>
       </c>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1408,11 +1406,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>82000</v>
+        <v>93000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1420,11 +1418,11 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>334</v>
+        <v>667</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>167000</v>
+        <v>333500</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1432,11 +1430,11 @@
         <v>200</v>
       </c>
       <c r="B31" s="4">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C31" s="20">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1444,11 +1442,11 @@
         <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>1427</v>
+        <v>1563</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>142700</v>
+        <v>156300</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1456,11 +1454,11 @@
         <v>50</v>
       </c>
       <c r="B33" s="4">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C33" s="20">
         <f t="shared" si="1"/>
-        <v>1350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1468,33 +1466,31 @@
         <v>20</v>
       </c>
       <c r="B34" s="4">
-        <v>129</v>
+        <v>600</v>
       </c>
       <c r="C34" s="20">
         <f>SUM(A34*B34)</f>
-        <v>2580</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>10</v>
       </c>
-      <c r="B35" s="4">
-        <v>137</v>
-      </c>
+      <c r="B35" s="4"/>
       <c r="C35" s="20">
         <f t="shared" si="1"/>
-        <v>1370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
-        <v>400000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1502,11 +1498,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="37" t="str">
+      <c r="B37" s="51" t="str">
         <f>B14</f>
-        <v>Four Lac Taka Only.</v>
-      </c>
-      <c r="C37" s="38"/>
+        <v>Six Lac Taka Only.</v>
+      </c>
+      <c r="C37" s="52"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1523,19 +1519,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="41"/>
+      <c r="C40" s="55"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="41"/>
+      <c r="C41" s="55"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="41"/>
+      <c r="C42" s="55"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1561,12 +1557,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1575,6 +1565,12 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>

--- a/2022/Symphony/Others/Cash A.xlsx
+++ b/2022/Symphony/Others/Cash A.xlsx
@@ -75,7 +75,7 @@
     <t>Cash Handover by Rahinul Kabir to bKash Jafor, Order as per Abdul Mannan Tipu</t>
   </si>
   <si>
-    <t>Six Lac Taka Only.</t>
+    <t>Four Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -498,26 +498,38 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,40 +540,28 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,11 +1164,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1176,21 +1176,21 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44610</v>
+        <v>44644</v>
       </c>
       <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="1:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1208,11 +1208,11 @@
         <v>1000</v>
       </c>
       <c r="B6" s="4">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C12" si="0">SUM(A6*B6)</f>
-        <v>93000</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,23 +1220,21 @@
         <v>500</v>
       </c>
       <c r="B7" s="4">
-        <v>667</v>
+        <v>350</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>333500</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>200</v>
       </c>
-      <c r="B8" s="4">
-        <v>26</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,20 +1242,18 @@
         <v>100</v>
       </c>
       <c r="B9" s="4">
-        <v>1563</v>
+        <v>190</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>156300</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>50</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1268,11 +1264,11 @@
         <v>20</v>
       </c>
       <c r="B11" s="4">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1286,23 +1282,23 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
-        <v>600000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
@@ -1319,19 +1315,19 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="55"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="55"/>
+      <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="55"/>
+      <c r="C19" s="41"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
@@ -1362,11 +1358,11 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -1374,21 +1370,21 @@
       </c>
       <c r="B25" s="32">
         <f ca="1">B2</f>
-        <v>44610</v>
+        <v>44644</v>
       </c>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
     </row>
     <row r="27" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
     </row>
     <row r="28" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1406,11 +1402,11 @@
         <v>1000</v>
       </c>
       <c r="B29" s="4">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" ref="C29:C35" si="1">SUM(A29*B29)</f>
-        <v>93000</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1418,23 +1414,21 @@
         <v>500</v>
       </c>
       <c r="B30" s="4">
-        <v>667</v>
+        <v>350</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="1"/>
-        <v>333500</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>200</v>
       </c>
-      <c r="B31" s="4">
-        <v>26</v>
-      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="20">
         <f t="shared" si="1"/>
-        <v>5200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1442,20 +1436,18 @@
         <v>100</v>
       </c>
       <c r="B32" s="4">
-        <v>1563</v>
+        <v>190</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="1"/>
-        <v>156300</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>50</v>
       </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1466,11 +1458,11 @@
         <v>20</v>
       </c>
       <c r="B34" s="4">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="C34" s="20">
         <f>SUM(A34*B34)</f>
-        <v>12000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
@@ -1484,13 +1476,13 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="21">
         <f>SUM(C29:C35)</f>
-        <v>600000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1498,11 +1490,11 @@
         <f>A14</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="B37" s="51" t="str">
+      <c r="B37" s="37" t="str">
         <f>B14</f>
-        <v>Six Lac Taka Only.</v>
-      </c>
-      <c r="C37" s="52"/>
+        <v>Four Lac Taka Only.</v>
+      </c>
+      <c r="C37" s="38"/>
     </row>
     <row r="38" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
@@ -1519,19 +1511,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="55"/>
+      <c r="C40" s="41"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="55"/>
+      <c r="C41" s="41"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="55"/>
+      <c r="C42" s="41"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
@@ -1557,6 +1549,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B37:C37"/>
@@ -1565,12 +1563,6 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
